--- a/珊瑚配置产品记录.xlsx
+++ b/珊瑚配置产品记录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="1018">
   <si>
     <t>I19BM8</t>
   </si>
@@ -3040,11 +3040,67 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>C端7天电话医生卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AW0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AV4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>I20AU6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>黑龙江国寿双鸭山绿通VIP钻石续服卡测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20AE1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆国寿重疾绿通垫付VIP钻石卡（珊瑚）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AV9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川国寿成都绿通VIP白金卡五年期(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AV5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏国寿绿通VIP钻石卡(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏国寿绿通VIP钻石卡三年期(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AV3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏国寿绿通VIP钻石卡五年期(珊瑚)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I20AV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川国寿广安快捷垫付绿通VIP白金卡(珊瑚)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3118,7 +3174,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3405,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="D492" sqref="D492"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7427,16 +7493,72 @@
     </row>
     <row r="502" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B504" t="s">
         <v>1002</v>
       </c>
-      <c r="B502" t="s">
+    </row>
+    <row r="505" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
         <v>1003</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
